--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value273.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value273.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.598517908548956</v>
+        <v>1.68118155002594</v>
       </c>
       <c r="B1">
-        <v>1.03845450072793</v>
+        <v>1.870495915412903</v>
       </c>
       <c r="C1">
-        <v>2.54667162358435</v>
+        <v>1.937172293663025</v>
       </c>
       <c r="D1">
-        <v>3.096175470265314</v>
+        <v>2.51207160949707</v>
       </c>
       <c r="E1">
-        <v>1.648207458392778</v>
+        <v>3.432585954666138</v>
       </c>
     </row>
   </sheetData>
